--- a/data/jack-8-tekken-8-frame-data.xlsx
+++ b/data/jack-8-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,15 +522,11 @@
       <c r="D3" t="n">
         <v>15</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,15 +556,11 @@
       <c r="D4" t="n">
         <v>15</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+67 (+51)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -598,15 +586,11 @@
       <c r="D5" t="n">
         <v>19</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -650,15 +634,9 @@
       <c r="D7" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+70</t>
-        </is>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>70</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -684,15 +662,11 @@
       <c r="D8" t="n">
         <v>17</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+7 (-2)</t>
-        </is>
+      <c r="E8" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -722,15 +696,11 @@
       <c r="D9" t="n">
         <v>21</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+52 (+42)</t>
-        </is>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>52</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -756,15 +726,11 @@
       <c r="D10" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+66 (+50)</t>
-        </is>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -790,15 +756,11 @@
       <c r="D11" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -820,15 +782,11 @@
       <c r="D12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -854,15 +812,11 @@
       <c r="D13" t="n">
         <v>33</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -884,15 +838,11 @@
       <c r="D14" t="n">
         <v>33</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+29 (+19)</t>
-        </is>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -914,15 +864,11 @@
       <c r="D15" t="n">
         <v>16</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -948,15 +894,11 @@
       <c r="D16" t="n">
         <v>19</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1002,15 +944,11 @@
       <c r="D18" t="n">
         <v>20</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1032,15 +970,11 @@
       <c r="D19" t="n">
         <v>14</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1 (-10)</t>
-        </is>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1066,15 +1000,11 @@
       <c r="D20" t="n">
         <v>26</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E20" t="n">
+        <v>14</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1104,15 +1034,11 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1138,15 +1064,11 @@
       <c r="D22" t="n">
         <v>35</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-2 (+5 WC)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+17 (+9)</t>
-        </is>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1172,15 +1094,11 @@
       <c r="D23" t="n">
         <v>16</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E23" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1202,15 +1120,11 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1232,15 +1146,11 @@
       <c r="D25" t="n">
         <v>25</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+44 (-14)</t>
-        </is>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>44</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1266,15 +1176,11 @@
       <c r="D26" t="n">
         <v>67</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+13 (+5)</t>
-        </is>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1300,15 +1206,11 @@
       <c r="D27" t="n">
         <v>13</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1334,15 +1236,11 @@
       <c r="D28" t="n">
         <v>30</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-8</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1368,15 +1266,11 @@
       <c r="D29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1398,15 +1292,11 @@
       <c r="D30" t="n">
         <v>27</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+42 (+32)</t>
-        </is>
+      <c r="E30" t="n">
+        <v>18</v>
+      </c>
+      <c r="F30" t="n">
+        <v>42</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1428,15 +1318,11 @@
       <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1459,10 +1345,8 @@
         <v>12</v>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F32" t="n">
+        <v>6</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1488,15 +1372,11 @@
       <c r="D33" t="n">
         <v>20</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E33" t="n">
+        <v>17</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-6</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1534,15 +1414,11 @@
       <c r="D35" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1564,15 +1440,11 @@
       <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1594,15 +1466,11 @@
       <c r="D37" t="n">
         <v>16</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1628,15 +1496,11 @@
       <c r="D38" t="n">
         <v>16</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1658,15 +1522,11 @@
       <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+43 (-4)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="n">
+        <v>43</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1692,15 +1552,11 @@
       <c r="D40" t="n">
         <v>18</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E40" t="n">
+        <v>70</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-5</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1722,15 +1578,11 @@
       <c r="D41" t="n">
         <v>22</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E41" t="n">
+        <v>18</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1760,15 +1612,11 @@
       <c r="D42" t="n">
         <v>36</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-33</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E42" t="n">
+        <v>33</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1794,15 +1642,11 @@
       <c r="D43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-9</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1824,15 +1668,11 @@
       <c r="D44" t="n">
         <v>27</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-9</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1854,15 +1694,11 @@
       <c r="D45" t="n">
         <v>34</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+43 (-15)</t>
-        </is>
+      <c r="E45" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1888,15 +1724,11 @@
       <c r="D46" t="n">
         <v>27</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E46" t="n">
+        <v>19</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-8</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1918,15 +1750,11 @@
       <c r="D47" t="n">
         <v>27</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-5</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1948,15 +1776,11 @@
       <c r="D48" t="n">
         <v>27</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E48" t="n">
+        <v>19</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-8</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1978,15 +1802,11 @@
       <c r="D49" t="n">
         <v>27</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-5</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -2008,15 +1828,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-2</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2038,15 +1854,11 @@
       <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2072,15 +1884,11 @@
       <c r="D52" t="n">
         <v>29</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="E52" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2110,15 +1918,11 @@
       <c r="D53" t="n">
         <v>29</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2144,15 +1948,11 @@
       <c r="D54" t="n">
         <v>15</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-2</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2178,15 +1978,11 @@
       <c r="D55" t="n">
         <v>9</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+35 (-23)</t>
-        </is>
+      <c r="E55" t="n">
+        <v>18</v>
+      </c>
+      <c r="F55" t="n">
+        <v>35</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2212,15 +2008,11 @@
       <c r="D56" t="n">
         <v>34</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E56" t="n">
+        <v>37</v>
+      </c>
+      <c r="F56" t="n">
+        <v>18</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2246,15 +2038,11 @@
       <c r="D57" t="n">
         <v>15</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
+      <c r="E57" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" t="n">
+        <v>31</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2276,15 +2064,11 @@
       <c r="D58" t="n">
         <v>21</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-32</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+40 (+22)</t>
-        </is>
+      <c r="E58" t="n">
+        <v>32</v>
+      </c>
+      <c r="F58" t="n">
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2306,15 +2090,11 @@
       <c r="D59" t="n">
         <v>35</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-46</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+69 (+53)</t>
-        </is>
+      <c r="E59" t="n">
+        <v>46</v>
+      </c>
+      <c r="F59" t="n">
+        <v>69</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2340,15 +2120,11 @@
       <c r="D60" t="n">
         <v>22</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+31 (-5)</t>
-        </is>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>31</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2374,15 +2150,11 @@
       <c r="D61" t="n">
         <v>16</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2404,15 +2176,11 @@
       <c r="D62" t="n">
         <v>20</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>25</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2438,15 +2206,11 @@
       <c r="D63" t="n">
         <v>13</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>23</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2472,15 +2236,11 @@
       <c r="D64" t="n">
         <v>15</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2506,15 +2266,11 @@
       <c r="D65" t="n">
         <v>14</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2536,15 +2292,11 @@
       <c r="D66" t="n">
         <v>25</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+8 (-1)</t>
-        </is>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2574,15 +2326,9 @@
       <c r="D67" t="n">
         <v>27</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>i12</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+32 (+6)</t>
-        </is>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>32</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2608,15 +2354,11 @@
       <c r="D68" t="n">
         <v>22</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E68" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2642,15 +2384,11 @@
       <c r="D69" t="n">
         <v>26</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+65 (+49)</t>
-        </is>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>65</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2676,15 +2414,11 @@
       <c r="D70" t="n">
         <v>33</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E70" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2710,15 +2444,11 @@
       <c r="D71" t="n">
         <v>61</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-12 (0 wall crush)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+11 (-15)</t>
-        </is>
+      <c r="E71" t="n">
+        <v>12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2744,15 +2474,11 @@
       <c r="D72" t="n">
         <v>10</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E72" t="n">
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2778,15 +2504,11 @@
       <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E73" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2812,15 +2534,11 @@
       <c r="D74" t="n">
         <v>25</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2850,15 +2568,11 @@
       <c r="D75" t="n">
         <v>23</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+44 (-14)</t>
-        </is>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>44</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2884,15 +2598,11 @@
       <c r="D76" t="n">
         <v>22</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E76" t="n">
+        <v>11</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2918,15 +2628,9 @@
       <c r="D77" t="n">
         <v>65</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2952,15 +2656,11 @@
       <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E78" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2986,15 +2686,11 @@
       <c r="D79" t="n">
         <v>15</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E79" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3020,15 +2716,11 @@
       <c r="D80" t="n">
         <v>15</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E80" t="n">
+        <v>15</v>
+      </c>
+      <c r="F80" t="n">
+        <v>22</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -3054,15 +2746,11 @@
       <c r="D81" t="n">
         <v>28</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E81" t="n">
+        <v>19</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3084,15 +2772,11 @@
       <c r="D82" t="n">
         <v>32</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E82" t="n">
+        <v>11</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3118,15 +2802,11 @@
       <c r="D83" t="n">
         <v>21</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-82</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-88</t>
-        </is>
+      <c r="E83" t="n">
+        <v>82</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-88</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3148,15 +2828,11 @@
       <c r="D84" t="n">
         <v>18</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+53 (+43)</t>
-        </is>
+      <c r="E84" t="n">
+        <v>16</v>
+      </c>
+      <c r="F84" t="n">
+        <v>53</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3178,15 +2854,11 @@
       <c r="D85" t="n">
         <v>34</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+61</t>
-        </is>
+      <c r="E85" t="n">
+        <v>16</v>
+      </c>
+      <c r="F85" t="n">
+        <v>61</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3212,15 +2884,11 @@
       <c r="D86" t="n">
         <v>26</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E86" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3246,15 +2914,11 @@
       <c r="D87" t="n">
         <v>16</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -3280,15 +2944,11 @@
       <c r="D88" t="n">
         <v>20</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+7 (-2)</t>
-        </is>
+      <c r="E88" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3314,15 +2974,11 @@
       <c r="D89" t="n">
         <v>22</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E89" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3348,15 +3004,11 @@
       <c r="D90" t="n">
         <v>22</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+73 (+57)</t>
-        </is>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>73</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3382,15 +3034,11 @@
       <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+31 (+5)</t>
-        </is>
+      <c r="E91" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F91" t="n">
+        <v>31</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3416,15 +3064,11 @@
       <c r="D92" t="n">
         <v>20</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>40</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3450,15 +3094,11 @@
       <c r="D93" t="n">
         <v>14</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+21d(+11)</t>
-        </is>
+      <c r="E93" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>21</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3484,15 +3124,11 @@
       <c r="D94" t="n">
         <v>10</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-2 (-12)</t>
-        </is>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3518,15 +3154,11 @@
       <c r="D95" t="n">
         <v>20</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E95" t="n">
+        <v>15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3552,15 +3184,11 @@
       <c r="D96" t="n">
         <v>19</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+49 (+39)</t>
-        </is>
+      <c r="E96" t="n">
+        <v>13</v>
+      </c>
+      <c r="F96" t="n">
+        <v>49</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3582,15 +3210,9 @@
       <c r="D97" t="n">
         <v>94</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>17</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3616,15 +3238,11 @@
       <c r="D98" t="n">
         <v>25</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>16</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3650,15 +3268,11 @@
       <c r="D99" t="n">
         <v>20</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>23</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3685,10 +3299,8 @@
         <v>17</v>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+71 (+55)</t>
-        </is>
+      <c r="F100" t="n">
+        <v>71</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3715,10 +3327,8 @@
         <v>35</v>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+69 (+53)</t>
-        </is>
+      <c r="F101" t="n">
+        <v>69</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3744,15 +3354,11 @@
       <c r="D102" t="n">
         <v>24</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E102" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3782,15 +3388,11 @@
       <c r="D103" t="n">
         <v>23</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E103" t="n">
+        <v>17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3812,15 +3414,11 @@
       <c r="D104" t="n">
         <v>34</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E104" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F104" t="n">
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3842,15 +3440,11 @@
       <c r="D105" t="n">
         <v>20</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="E105" t="n">
+        <v>9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>25</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3876,15 +3470,11 @@
       <c r="D106" t="n">
         <v>13</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E106" t="n">
+        <v>23</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3910,15 +3500,11 @@
       <c r="D107" t="n">
         <v>15</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E107" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3944,15 +3530,11 @@
       <c r="D108" t="n">
         <v>14</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -3974,15 +3556,11 @@
       <c r="D109" t="n">
         <v>25</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+8 (-1)</t>
-        </is>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4012,15 +3590,9 @@
       <c r="D110" t="n">
         <v>27</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>i12</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+32 (+6)</t>
-        </is>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>32</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -4046,15 +3618,11 @@
       <c r="D111" t="n">
         <v>22</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E111" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -4080,15 +3648,11 @@
       <c r="D112" t="n">
         <v>26</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+65 (+49)</t>
-        </is>
+      <c r="E112" t="n">
+        <v>12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>65</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4114,15 +3678,11 @@
       <c r="D113" t="n">
         <v>33</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E113" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -4148,15 +3708,11 @@
       <c r="D114" t="n">
         <v>61</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-12 (0 wall crush)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+11 (-15)</t>
-        </is>
+      <c r="E114" t="n">
+        <v>12</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4182,15 +3738,11 @@
       <c r="D115" t="n">
         <v>10</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E115" t="n">
+        <v>12</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4216,15 +3768,11 @@
       <c r="D116" t="n">
         <v>15</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
@@ -4250,15 +3798,11 @@
       <c r="D117" t="n">
         <v>25</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E117" t="n">
+        <v>11</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4288,15 +3832,11 @@
       <c r="D118" t="n">
         <v>23</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+44 (-14)</t>
-        </is>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>44</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4322,15 +3862,11 @@
       <c r="D119" t="n">
         <v>22</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E119" t="n">
+        <v>11</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4356,15 +3892,9 @@
       <c r="D120" t="n">
         <v>65</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>5</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4390,15 +3920,11 @@
       <c r="D121" t="n">
         <v>15</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E121" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4424,15 +3950,11 @@
       <c r="D122" t="n">
         <v>15</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E122" t="n">
+        <v>6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4458,15 +3980,11 @@
       <c r="D123" t="n">
         <v>15</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E123" t="n">
+        <v>15</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4492,15 +4010,11 @@
       <c r="D124" t="n">
         <v>28</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E124" t="n">
+        <v>19</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4522,15 +4036,11 @@
       <c r="D125" t="n">
         <v>32</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4556,15 +4066,11 @@
       <c r="D126" t="n">
         <v>21</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-82</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-88</t>
-        </is>
+      <c r="E126" t="n">
+        <v>82</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-88</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4586,15 +4092,11 @@
       <c r="D127" t="n">
         <v>18</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+53 (+43)</t>
-        </is>
+      <c r="E127" t="n">
+        <v>16</v>
+      </c>
+      <c r="F127" t="n">
+        <v>53</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -4616,15 +4118,11 @@
       <c r="D128" t="n">
         <v>34</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+61</t>
-        </is>
+      <c r="E128" t="n">
+        <v>16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>61</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4650,15 +4148,11 @@
       <c r="D129" t="n">
         <v>26</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E129" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4684,15 +4178,11 @@
       <c r="D130" t="n">
         <v>16</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
@@ -4718,15 +4208,11 @@
       <c r="D131" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+7 (-2)</t>
-        </is>
+      <c r="E131" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4752,15 +4238,11 @@
       <c r="D132" t="n">
         <v>22</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E132" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4786,15 +4268,11 @@
       <c r="D133" t="n">
         <v>22</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+73 (+57)</t>
-        </is>
+      <c r="E133" t="n">
+        <v>6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>73</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4820,15 +4298,11 @@
       <c r="D134" t="n">
         <v>20</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+31 (+5)</t>
-        </is>
+      <c r="E134" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F134" t="n">
+        <v>31</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4854,15 +4328,11 @@
       <c r="D135" t="n">
         <v>20</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>40</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4888,15 +4358,11 @@
       <c r="D136" t="n">
         <v>14</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+21d(+11)</t>
-        </is>
+      <c r="E136" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4922,15 +4388,11 @@
       <c r="D137" t="n">
         <v>10</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>-2 (-12)</t>
-        </is>
+      <c r="E137" t="n">
+        <v>9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-2</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
@@ -4956,15 +4418,11 @@
       <c r="D138" t="n">
         <v>20</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E138" t="n">
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -4990,15 +4448,11 @@
       <c r="D139" t="n">
         <v>19</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+49 (+39)</t>
-        </is>
+      <c r="E139" t="n">
+        <v>13</v>
+      </c>
+      <c r="F139" t="n">
+        <v>49</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -5020,15 +4474,9 @@
       <c r="D140" t="n">
         <v>94</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>17</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -5054,15 +4502,11 @@
       <c r="D141" t="n">
         <v>25</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
+      <c r="E141" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -5088,15 +4532,11 @@
       <c r="D142" t="n">
         <v>20</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>23</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -5123,10 +4563,8 @@
         <v>17</v>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+71 (+55)</t>
-        </is>
+      <c r="F143" t="n">
+        <v>71</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
@@ -5153,10 +4591,8 @@
         <v>35</v>
       </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+69 (+53)</t>
-        </is>
+      <c r="F144" t="n">
+        <v>69</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
@@ -5182,15 +4618,11 @@
       <c r="D145" t="n">
         <v>24</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E145" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5220,15 +4652,11 @@
       <c r="D146" t="n">
         <v>23</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E146" t="n">
+        <v>17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -5250,15 +4678,11 @@
       <c r="D147" t="n">
         <v>34</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E147" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>

--- a/data/jack-8-tekken-8-frame-data.xlsx
+++ b/data/jack-8-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F4" t="n">
         <v>67</v>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F9" t="n">
         <v>52</v>
@@ -727,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F10" t="n">
         <v>66</v>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
@@ -783,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
@@ -839,7 +839,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F14" t="n">
         <v>29</v>
@@ -865,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
@@ -971,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -1035,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
@@ -1095,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -1121,7 +1121,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F25" t="n">
         <v>44</v>
@@ -1177,7 +1177,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F27" t="n">
         <v>-2</v>
@@ -1237,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F28" t="n">
         <v>-8</v>
@@ -1267,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F29" t="n">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F30" t="n">
         <v>42</v>
@@ -1319,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F31" t="n">
         <v>7</v>
@@ -1373,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F33" t="n">
         <v>-6</v>
@@ -1415,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F35" t="n">
         <v>-4</v>
@@ -1441,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F37" t="n">
         <v>-1</v>
@@ -1497,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F38" t="n">
         <v>-1</v>
@@ -1523,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F39" t="n">
         <v>43</v>
@@ -1553,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>70</v>
+        <v>-70</v>
       </c>
       <c r="F40" t="n">
         <v>-5</v>
@@ -1579,7 +1579,7 @@
         <v>22</v>
       </c>
       <c r="E41" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="E42" t="n">
-        <v>33</v>
+        <v>-33</v>
       </c>
       <c r="F42" t="n">
         <v>17</v>
@@ -1643,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F43" t="n">
         <v>-9</v>
@@ -1669,7 +1669,7 @@
         <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F44" t="n">
         <v>-9</v>
@@ -1695,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="E45" t="n">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
         <v>43</v>
@@ -1725,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="E46" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F46" t="n">
         <v>-8</v>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F47" t="n">
         <v>-5</v>
@@ -1777,7 +1777,7 @@
         <v>27</v>
       </c>
       <c r="E48" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F48" t="n">
         <v>-8</v>
@@ -1803,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="E49" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F49" t="n">
         <v>-5</v>
@@ -1829,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F50" t="n">
         <v>-2</v>
@@ -1855,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F52" t="n">
         <v>21</v>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F53" t="n">
         <v>-1</v>
@@ -1949,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F54" t="n">
         <v>-2</v>
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F55" t="n">
         <v>35</v>
@@ -2009,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F56" t="n">
         <v>18</v>
@@ -2039,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F57" t="n">
         <v>31</v>
@@ -2065,7 +2065,7 @@
         <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>-32</v>
       </c>
       <c r="F58" t="n">
         <v>40</v>
@@ -2091,7 +2091,7 @@
         <v>35</v>
       </c>
       <c r="E59" t="n">
-        <v>46</v>
+        <v>-46</v>
       </c>
       <c r="F59" t="n">
         <v>69</v>
@@ -2121,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F60" t="n">
         <v>31</v>
@@ -2151,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F62" t="n">
         <v>25</v>
@@ -2207,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F63" t="n">
         <v>10</v>
@@ -2237,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F64" t="n">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F65" t="n">
         <v>5</v>
@@ -2293,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F68" t="n">
         <v>5</v>
@@ -2385,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F69" t="n">
         <v>65</v>
@@ -2415,7 +2415,7 @@
         <v>33</v>
       </c>
       <c r="E70" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>61</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F71" t="n">
         <v>11</v>
@@ -2475,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F72" t="n">
         <v>5</v>
@@ -2505,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F73" t="n">
         <v>5</v>
@@ -2535,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -2569,7 +2569,7 @@
         <v>23</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F75" t="n">
         <v>44</v>
@@ -2599,7 +2599,7 @@
         <v>22</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F79" t="n">
         <v>8</v>
@@ -2717,7 +2717,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2747,7 +2747,7 @@
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F81" t="n">
         <v>13</v>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F82" t="n">
         <v>11</v>
@@ -2803,7 +2803,7 @@
         <v>21</v>
       </c>
       <c r="E83" t="n">
-        <v>82</v>
+        <v>-82</v>
       </c>
       <c r="F83" t="n">
         <v>-88</v>
@@ -2829,7 +2829,7 @@
         <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F84" t="n">
         <v>53</v>
@@ -2855,7 +2855,7 @@
         <v>34</v>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F85" t="n">
         <v>61</v>
@@ -2885,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="E86" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -2915,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F87" t="n">
         <v>15</v>
@@ -2945,7 +2945,7 @@
         <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>7</v>
@@ -2975,7 +2975,7 @@
         <v>22</v>
       </c>
       <c r="E89" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>22</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F90" t="n">
         <v>73</v>
@@ -3035,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
         <v>31</v>
@@ -3065,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F92" t="n">
         <v>40</v>
@@ -3095,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>21</v>
@@ -3125,7 +3125,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F94" t="n">
         <v>-2</v>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F96" t="n">
         <v>49</v>
@@ -3239,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F98" t="n">
         <v>15</v>
@@ -3269,7 +3269,7 @@
         <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F99" t="n">
         <v>23</v>
@@ -3355,7 +3355,7 @@
         <v>24</v>
       </c>
       <c r="E102" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
         <v>7</v>
@@ -3389,7 +3389,7 @@
         <v>23</v>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F103" t="n">
         <v>8</v>
@@ -3415,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="E104" t="n">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="F104" t="n">
         <v>20</v>
@@ -3441,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F105" t="n">
         <v>25</v>
@@ -3471,7 +3471,7 @@
         <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F106" t="n">
         <v>10</v>
@@ -3501,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F107" t="n">
         <v>5</v>
@@ -3531,7 +3531,7 @@
         <v>14</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F108" t="n">
         <v>5</v>
@@ -3557,7 +3557,7 @@
         <v>25</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F109" t="n">
         <v>8</v>
@@ -3619,7 +3619,7 @@
         <v>22</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F111" t="n">
         <v>5</v>
@@ -3649,7 +3649,7 @@
         <v>26</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F112" t="n">
         <v>65</v>
@@ -3679,7 +3679,7 @@
         <v>33</v>
       </c>
       <c r="E113" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F113" t="n">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         <v>61</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F114" t="n">
         <v>11</v>
@@ -3739,7 +3739,7 @@
         <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F115" t="n">
         <v>5</v>
@@ -3769,7 +3769,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
@@ -3799,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
@@ -3833,7 +3833,7 @@
         <v>23</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F118" t="n">
         <v>44</v>
@@ -3863,7 +3863,7 @@
         <v>22</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F119" t="n">
         <v>9</v>
@@ -3921,7 +3921,7 @@
         <v>15</v>
       </c>
       <c r="E121" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F122" t="n">
         <v>8</v>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F123" t="n">
         <v>22</v>
@@ -4011,7 +4011,7 @@
         <v>28</v>
       </c>
       <c r="E124" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F124" t="n">
         <v>13</v>
@@ -4037,7 +4037,7 @@
         <v>32</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
@@ -4067,7 +4067,7 @@
         <v>21</v>
       </c>
       <c r="E126" t="n">
-        <v>82</v>
+        <v>-82</v>
       </c>
       <c r="F126" t="n">
         <v>-88</v>
@@ -4093,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="E127" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F127" t="n">
         <v>53</v>
@@ -4119,7 +4119,7 @@
         <v>34</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F128" t="n">
         <v>61</v>
@@ -4149,7 +4149,7 @@
         <v>26</v>
       </c>
       <c r="E129" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
         <v>9</v>
@@ -4179,7 +4179,7 @@
         <v>16</v>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F130" t="n">
         <v>15</v>
@@ -4209,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>7</v>
@@ -4239,7 +4239,7 @@
         <v>22</v>
       </c>
       <c r="E132" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F132" t="n">
         <v>6</v>
@@ -4269,7 +4269,7 @@
         <v>22</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F133" t="n">
         <v>73</v>
@@ -4299,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="E134" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F134" t="n">
         <v>31</v>
@@ -4329,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F135" t="n">
         <v>40</v>
@@ -4359,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="E136" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
         <v>21</v>
@@ -4389,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F137" t="n">
         <v>-2</v>
@@ -4419,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="E138" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>19</v>
       </c>
       <c r="E139" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F139" t="n">
         <v>49</v>
@@ -4503,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="E141" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F141" t="n">
         <v>15</v>
@@ -4533,7 +4533,7 @@
         <v>20</v>
       </c>
       <c r="E142" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F142" t="n">
         <v>23</v>
@@ -4619,7 +4619,7 @@
         <v>24</v>
       </c>
       <c r="E145" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>7</v>
@@ -4653,7 +4653,7 @@
         <v>23</v>
       </c>
       <c r="E146" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F146" t="n">
         <v>8</v>
@@ -4679,7 +4679,7 @@
         <v>34</v>
       </c>
       <c r="E147" t="n">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="F147" t="n">
         <v>20</v>
